--- a/src/nlp/dataset/知识库.xlsx
+++ b/src/nlp/dataset/知识库.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="8687"/>
+    <workbookView windowWidth="16800" windowHeight="8680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>一级品类</t>
   </si>
@@ -47,295 +47,132 @@
     <t>购买场景</t>
   </si>
   <si>
-    <t>水果</t>
-  </si>
-  <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>红富士</t>
-  </si>
-  <si>
-    <t>进门左手边的果蔬区</t>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>汽水</t>
+  </si>
+  <si>
+    <t>可乐</t>
+  </si>
+  <si>
+    <t>常温在超市进门左手边的货架上，冰镇的在货架旁边的冰柜里</t>
+  </si>
+  <si>
+    <t>液体饮品，提供水分/糖分</t>
+  </si>
+  <si>
+    <t>日常饮品/聚会筹备/即时解渴​</t>
+  </si>
+  <si>
+    <t>果汁</t>
+  </si>
+  <si>
+    <t>水溶c</t>
+  </si>
+  <si>
+    <t>橙汁</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>液体饮品，提供水分/蛋白质/钙质</t>
+  </si>
+  <si>
+    <t>日常营养补给/家庭早餐/儿童饮品​</t>
+  </si>
+  <si>
+    <t>测量工具与仪器</t>
+  </si>
+  <si>
+    <t>量具</t>
+  </si>
+  <si>
+    <t>卷尺</t>
+  </si>
+  <si>
+    <t>超市进门直走到尽头的工具区</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通体鲜红，形状浑圆</t>
+      <t>​</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">	</t>
+      <t>钢制</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>脆甜多汁，甜度高，主流大众</t>
-    </r>
-  </si>
-  <si>
-    <t>礼盒装、家庭装、日常消费</t>
-  </si>
-  <si>
-    <t>黄元帅</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金黄色带红晕</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">	</t>
+      <t>塑料制测量工具，精度</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>软糯酸甜，香气浓郁</t>
-    </r>
-  </si>
-  <si>
-    <t>儿童辅食、烘焙原料</t>
-  </si>
-  <si>
-    <t>青苹果</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>翠绿或黄绿色</t>
+      <t>1mm</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">	</t>
+      <t>级</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>酸脆清爽，硬度高</t>
+      <t>​</t>
     </r>
-  </si>
-  <si>
-    <t>健康轻食沙拉、果汁加工、特色陈列</t>
-  </si>
-  <si>
-    <t>葡萄</t>
-  </si>
-  <si>
-    <t>阳光玫瑰葡萄</t>
-  </si>
-  <si>
-    <t>进门右手边水果区</t>
-  </si>
-  <si>
-    <t>翠绿色果粒，无籽皮薄，甜度高带玫瑰香气</t>
-  </si>
-  <si>
-    <t>高端果篮、下午茶搭配</t>
-  </si>
-  <si>
-    <t>草莓</t>
-  </si>
-  <si>
-    <t>红颜草莓</t>
-  </si>
-  <si>
-    <t>圆锥形鲜红果实，肉质细腻，酸甜平衡</t>
-  </si>
-  <si>
-    <t>情人节礼物、甜品装饰</t>
-  </si>
-  <si>
-    <t>橙子</t>
-  </si>
-  <si>
-    <t>脐橙</t>
-  </si>
-  <si>
-    <t>橙红表皮易剥，果肉多汁无籽</t>
-  </si>
-  <si>
-    <t>补充维C、榨汁原料</t>
-  </si>
-  <si>
-    <t>车厘子</t>
-  </si>
-  <si>
-    <t>拉宾斯车厘子</t>
-  </si>
-  <si>
-    <t>深紫红色，硬度高，脆甜爆汁</t>
-  </si>
-  <si>
-    <t>节日礼盒、高端消费</t>
-  </si>
-  <si>
-    <t>蓝莓</t>
-  </si>
-  <si>
-    <t>有机蓝莓</t>
-  </si>
-  <si>
-    <t>深蓝色小果，表皮带白霜，酸甜浓郁</t>
-  </si>
-  <si>
-    <t>儿童辅食、沙拉配料</t>
-  </si>
-  <si>
-    <t>零食</t>
-  </si>
-  <si>
-    <t>坚果炒货</t>
-  </si>
-  <si>
-    <t>炭烤腰果</t>
-  </si>
-  <si>
-    <t>中央散装货架</t>
-  </si>
-  <si>
-    <t>金黄色无衣腰果，轻盐炭烤工艺</t>
-  </si>
-  <si>
-    <t>办公零食、佐酒小食</t>
-  </si>
-  <si>
-    <t>膨化食品</t>
-  </si>
-  <si>
-    <t>海苔米饼</t>
-  </si>
-  <si>
-    <t>方形脆饼，表面海苔碎，低油配方</t>
-  </si>
-  <si>
-    <t>儿童零食、露营食品</t>
-  </si>
-  <si>
-    <t>巧克力</t>
-  </si>
-  <si>
-    <t>黑巧夹心系列</t>
-  </si>
-  <si>
-    <t>72%可可脂，内藏草莓冻干夹心</t>
-  </si>
-  <si>
-    <t>情侣礼物、能量补充</t>
-  </si>
-  <si>
-    <t>果冻布丁</t>
-  </si>
-  <si>
-    <t>蒟蒻果汁冻</t>
-  </si>
-  <si>
-    <t>低卡魔芋制成，多种水果口味</t>
-  </si>
-  <si>
-    <t>减肥代餐、户外活动</t>
-  </si>
-  <si>
-    <t>饼干</t>
-  </si>
-  <si>
-    <t>燕麦纤维饼干</t>
-  </si>
-  <si>
-    <t>粗粮烘焙，微甜酥脆，独立小包装</t>
-  </si>
-  <si>
-    <t>代餐轻食、健身补给</t>
-  </si>
-  <si>
-    <t>乳制品</t>
-  </si>
-  <si>
-    <t>牛奶</t>
-  </si>
-  <si>
-    <t>有机鲜牛奶</t>
-  </si>
-  <si>
-    <t>直走到尽头的冷藏乳品柜左侧</t>
-  </si>
-  <si>
-    <t>巴氏杀菌，3.6g乳蛋白，黄金奶源</t>
-  </si>
-  <si>
-    <t>家庭早餐、儿童营养</t>
-  </si>
-  <si>
-    <t>酸奶</t>
-  </si>
-  <si>
-    <t>希腊式酸奶</t>
-  </si>
-  <si>
-    <t>直走到尽头的冷藏乳品柜中央</t>
-  </si>
-  <si>
-    <t>三重过滤浓稠质地，高蛋白低脂</t>
-  </si>
-  <si>
-    <t>健身餐搭配、下午茶</t>
-  </si>
-  <si>
-    <t>奶酪</t>
-  </si>
-  <si>
-    <t>马苏里拉芝士</t>
-  </si>
-  <si>
-    <t>直走到尽头的冷藏乳品柜上层</t>
-  </si>
-  <si>
-    <t>白色拉丝奶酪，奶香柔和</t>
-  </si>
-  <si>
-    <t>披萨烘焙、西式料理</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3m</t>
+    </r>
+  </si>
+  <si>
+    <t>家庭维修/DIY项目/专业作业筹备​</t>
   </si>
 </sst>
 </file>
@@ -348,38 +185,32 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -387,14 +218,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -402,7 +233,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -410,7 +241,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -418,7 +249,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -426,7 +257,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -434,14 +265,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -449,7 +280,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -457,7 +288,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -465,14 +296,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -480,53 +311,53 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,12 +366,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -726,53 +551,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE0E0E0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE0E0E0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE0E0E0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE0E0E0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE0E0E0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE0E0E0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -875,70 +659,71 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,92 +738,77 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常規" xfId="0" builtinId="0"/>
@@ -1091,7 +861,7 @@
     <cellStyle name="40% - 強調文字顏色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 強調文字顏色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1108,7 +878,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,44 +888,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1185,12 +955,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1229,136 +999,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -1385,361 +1199,142 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="26.4416666666667" customWidth="1"/>
-    <col min="5" max="6" width="32.5416666666667" customWidth="1"/>
+    <col min="5" max="6" width="18.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="31" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" ht="31" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="5" ht="17.5" spans="1:6">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="31" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" ht="17.5" spans="1:6">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" ht="31" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="31" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="31" customHeight="1" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="31" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" ht="31" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" ht="31" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" ht="31" customHeight="1" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" ht="31" customHeight="1" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" ht="31" customHeight="1" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="31" customHeight="1" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" ht="31" customHeight="1" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" ht="31" customHeight="1" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:F1 A2:D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>